--- a/medicine/Enfance/Jacqueline_Held/Jacqueline_Held.xlsx
+++ b/medicine/Enfance/Jacqueline_Held/Jacqueline_Held.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacqueline Held, née à Poitiers le 27 mai 1936, est une femme de lettres française, auteure de littérature pour la jeunesse et poétesse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacqueline Held, née Bonneau[1], a été professeure de philosophie à l'école normale de Laon de 1960 à 1967, puis professeure de psychologie de l'enfant et de littérature pour la jeunesse à l'école normale d'Orléans jusqu’en 1980[1],[2]. En 1970, elle remporte le Grand prix ORTF de littérature pour la jeunesse pour son premier roman Le Chat de Simulombula[3],[4], qui sera publié par François Ruy-Vidal aux éditions Les livres d’Harlin Quist en grand format en 1971[5], puis au Livre de poche et Folio Junior pour les rééditions poches.
-Elle a publié deux livres théoriques sur la littérature d'enfance et de jeunesse, L'Imaginaire au pouvoir, aux éditions ouvrières, en 1977 ainsi que L'Enfant, le livre et l'écrivain en 1984[6]. Elle a aussi publié de nombreux livres pour enfants et recueils de poèmes, seule ou avec son mari, Claude Held[7],[1].
-Certains ouvrages ont été traduits en Allemagne, Argentine, Brésil, aux États-Unis, Espagne, Hollande, Grèce, Italie, Japon, Portugal, Suède et Tchécoslovaquie[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacqueline Held, née Bonneau, a été professeure de philosophie à l'école normale de Laon de 1960 à 1967, puis professeure de psychologie de l'enfant et de littérature pour la jeunesse à l'école normale d'Orléans jusqu’en 1980,. En 1970, elle remporte le Grand prix ORTF de littérature pour la jeunesse pour son premier roman Le Chat de Simulombula qui sera publié par François Ruy-Vidal aux éditions Les livres d’Harlin Quist en grand format en 1971, puis au Livre de poche et Folio Junior pour les rééditions poches.
+Elle a publié deux livres théoriques sur la littérature d'enfance et de jeunesse, L'Imaginaire au pouvoir, aux éditions ouvrières, en 1977 ainsi que L'Enfant, le livre et l'écrivain en 1984. Elle a aussi publié de nombreux livres pour enfants et recueils de poèmes, seule ou avec son mari, Claude Held,.
+Certains ouvrages ont été traduits en Allemagne, Argentine, Brésil, aux États-Unis, Espagne, Hollande, Grèce, Italie, Japon, Portugal, Suède et Tchécoslovaquie.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Patatou l'hippopotame, dessin de Philippe Thomas, Collection du Carrousel n°44, Dupuis, 1970.
 Jil et Jacinthe au jardin, illustrations de Anne-Marie Constant, Dessain et Tolra, 1970.
@@ -628,9 +644,43 @@
 Un grand militaire sur une pomme de terre, illustrations de Matt Mahlen, Gros Textes, 2014.
 Des mots de soleil, illustrations de Jean-Marie Pieron, Couleurs livres, 2015.
 J’ai besoin des voix humaines, Gros Textes, 2017.
-Pour attraper le printemps, illustrations de Yves Barré, Gros Textes, 2019.
-Avec Claude Held
-Poiravechiche, illustrations de Tina Mercié, Grasset jeunesse, 1973, réédition 2023.
+Pour attraper le printemps, illustrations de Yves Barré, Gros Textes, 2019.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jacqueline_Held</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacqueline_Held</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Avec Claude Held</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Poiravechiche, illustrations de Tina Mercié, Grasset jeunesse, 1973, réédition 2023.
 Hamster Rame, illustrations de Yvan Pommaux, L’école des loisirs, 1974.
 Le chat qui n’était pas botté, illustrations de Pierre Bataillard, OSL, 1975.
 Lune vole, illustrations de Yvan Pommaux, L’école des loisirs, 1976.
@@ -682,9 +732,43 @@
 C’est quoi un poème ?, Éditions Corps Puce, 2006.
 Chou radis pois et quoi ?, illustrations de Jacqueline Held, Tarabuste Éditeur, 2008.
 L’eau, la terre, monotypes d’André Besse, Éditions Jacques Brémond, 2008.
-Paroles d’Adam et Ève, illustration de couverture de Jeanne Held, Gros Textes, 2009.
-Collectif
-Il était une fois les mots, poèmes réunis par Yves Pinguilly, éditions de la Farandole, 1981.
+Paroles d’Adam et Ève, illustration de couverture de Jeanne Held, Gros Textes, 2009.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jacqueline_Held</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacqueline_Held</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Collectif</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il était une fois les mots, poèmes réunis par Yves Pinguilly, éditions de la Farandole, 1981.
 Le Jardin Secret des Poètes, Les Éditions Ouvrières - ouvrage hors-commerce - 1984.
 Drôles de drames, Nouvelles choisies par Jacqueline Held, Le livre de Poche Club, 1988.
 Les poètes et le clown, Motus, 1993.
@@ -709,44 +793,80 @@
 Pff ! ça sert à quoi la poésie ?!, poèmes choisis par Alain Serres et Jean-Marie Henry, illustrations de Laurent Corvaisier, Rue du Monde, 2018.
 Mes premières comptines et autres poèmes, illustrations de Luce Guilbaud, Couleur livres, 2019.
 Mon coffret à poèmes, Rue du Monde, 2019.
-Bienvenue en poésie, 30 poèmes pour ta naissance, illustrations de Aurélia Fronty, Rue du Monde, 2020.
-Adaptations
-Le Chat de Simulombula, enregistrement ORTF réalisé par Evelyne Frémy, avec Bernard Lavalette, Annie Dubergoin, Marie-Jeanne Gardien, 1971[9].
-Poiravechiche, un spectacle de Jacques Leny, d’après le texte de Jacqueline et Claude Held, 1975 [10].
+Bienvenue en poésie, 30 poèmes pour ta naissance, illustrations de Aurélia Fronty, Rue du Monde, 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jacqueline_Held</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacqueline_Held</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Chat de Simulombula, enregistrement ORTF réalisé par Evelyne Frémy, avec Bernard Lavalette, Annie Dubergoin, Marie-Jeanne Gardien, 1971.
+Poiravechiche, un spectacle de Jacques Leny, d’après le texte de Jacqueline et Claude Held, 1975 .
 Antifables (vinyle 45 tours), texte de Jacqueline Held, arrangement de Jacques Cassard, Le Chant du monde, 1976.
 Antifables 2 - Conseils aux enfants sages (vinyle 45 tours), texte de Jacqueline Held, arrangement de Jacques Cassard, Le Chant du monde, 1976.
 Le Noël d’Hector le loup (vinyle 45 tours), texte de Jacqueline Held, raconté par Alain Souchon, RCA, 1976.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Jacqueline_Held</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jacqueline_Held</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1970 : Grand prix ORTF de littérature pour la jeunesse[3], pour Le chat de Simulombula
-1978 : (international) « Honor List »[11], de l' IBBY, catégorie Auteur, pour Dikidi et la sagesse</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1970 : Grand prix ORTF de littérature pour la jeunesse, pour Le chat de Simulombula
+1978 : (international) « Honor List », de l' IBBY, catégorie Auteur, pour Dikidi et la sagesse</t>
         </is>
       </c>
     </row>
